--- a/DataAnalysis/fileExcel/newTypeNameConvert.xlsx
+++ b/DataAnalysis/fileExcel/newTypeNameConvert.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/fileExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20180" yWindow="4700" windowWidth="28080" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>机器类型</t>
   </si>
@@ -31,24 +44,24 @@
     <t>q5ez2q</t>
   </si>
   <si>
+    <t>mnee8b</t>
+  </si>
+  <si>
     <t>camera</t>
   </si>
   <si>
+    <t>f284us</t>
+  </si>
+  <si>
     <t>04l3g3</t>
   </si>
   <si>
-    <t>f284us</t>
-  </si>
-  <si>
     <t>kzn1p5</t>
   </si>
   <si>
     <t>ibw0sj</t>
   </si>
   <si>
-    <t>mnee8b</t>
-  </si>
-  <si>
     <t>gxfjie</t>
   </si>
   <si>
@@ -58,36 +71,36 @@
     <t>6uegyp</t>
   </si>
   <si>
+    <t>z7wx71</t>
+  </si>
+  <si>
     <t>dmh30b</t>
   </si>
   <si>
     <t>47jp1u</t>
   </si>
   <si>
-    <t>z7wx71</t>
-  </si>
-  <si>
     <t>Ifloor 3 国内</t>
   </si>
   <si>
     <t>A12 prue one</t>
   </si>
   <si>
+    <t>IFloor3 白色</t>
+  </si>
+  <si>
+    <t>国内吹风机</t>
+  </si>
+  <si>
     <t>星悦P1</t>
   </si>
   <si>
-    <t>国内吹风机</t>
-  </si>
-  <si>
     <t>星悦时尚版</t>
   </si>
   <si>
     <t>京东特制版</t>
   </si>
   <si>
-    <t>IFloor3 白色</t>
-  </si>
-  <si>
     <t>S11国内灰色</t>
   </si>
   <si>
@@ -97,24 +110,40 @@
     <t>S11 国内蓝色</t>
   </si>
   <si>
+    <t>S10 国内</t>
+  </si>
+  <si>
     <t>S12 香槟金</t>
   </si>
   <si>
     <t>S12 静夜黑</t>
   </si>
   <si>
-    <t>S10 国内</t>
+    <t>国内机器绑定情况</t>
+    <rPh sb="0" eb="1">
+      <t>guo'nei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bang'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,17 +151,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -162,22 +226,983 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>各类型机器绑定总数量</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$3:$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Ifloor 3 国内</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A12 prue one</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IFloor3 白色</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>国内吹风机</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>星悦P1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>星悦时尚版</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>京东特制版</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>S11国内灰色</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>国内A10  plus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>S11 国内蓝色</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>S10 国内</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>S12 香槟金</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>S12 静夜黑</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7607.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1906865744"/>
+        <c:axId val="-1906817488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1906865744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1906817488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1906817488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1906865744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,12 +1244,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -251,14 +1276,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -285,6 +1311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +1487,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -489,10 +1534,27 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>3404</v>
-      </c>
+        <v>7607</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,10 +1565,55 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>1920</v>
+        <v>1996</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:21" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -514,13 +1621,58 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>367</v>
+        <v>425</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7607</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>425</v>
+      </c>
+      <c r="K4" s="5">
+        <v>424</v>
+      </c>
+      <c r="L4" s="5">
+        <v>177</v>
+      </c>
+      <c r="M4" s="5">
+        <v>155</v>
+      </c>
+      <c r="N4" s="5">
+        <v>144</v>
+      </c>
+      <c r="O4" s="5">
+        <v>105</v>
+      </c>
+      <c r="P4" s="5">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5">
+        <v>14</v>
+      </c>
+      <c r="S4" s="5">
+        <v>13</v>
+      </c>
+      <c r="T4" s="5">
+        <v>6</v>
+      </c>
+      <c r="U4" s="5">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -528,13 +1680,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>148</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -545,10 +1697,10 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -559,10 +1711,10 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,10 +1725,10 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -587,10 +1739,10 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -601,10 +1753,10 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -618,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -629,10 +1781,10 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -643,10 +1795,10 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -657,10 +1809,10 @@
         <v>28</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -671,10 +1823,15 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>